--- a/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H2">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I2">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J2">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.4075162779492</v>
+        <v>16.454003</v>
       </c>
       <c r="N2">
-        <v>16.4075162779492</v>
+        <v>32.908006</v>
       </c>
       <c r="O2">
-        <v>0.5032254699804471</v>
+        <v>0.4882514020867614</v>
       </c>
       <c r="P2">
-        <v>0.5032254699804471</v>
+        <v>0.3953759714466225</v>
       </c>
       <c r="Q2">
-        <v>1076.45748453247</v>
+        <v>1080.246810399569</v>
       </c>
       <c r="R2">
-        <v>1076.45748453247</v>
+        <v>4320.987241598276</v>
       </c>
       <c r="S2">
-        <v>0.04102297291491967</v>
+        <v>0.03817877913372181</v>
       </c>
       <c r="T2">
-        <v>0.04102297291491967</v>
+        <v>0.02183051618075363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H3">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I3">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J3">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.76502324867029</v>
+        <v>0.06249266666666667</v>
       </c>
       <c r="N3">
-        <v>1.76502324867029</v>
+        <v>0.187478</v>
       </c>
       <c r="O3">
-        <v>0.05413401021775737</v>
+        <v>0.00185438960477524</v>
       </c>
       <c r="P3">
-        <v>0.05413401021775737</v>
+        <v>0.00225247000304029</v>
       </c>
       <c r="Q3">
-        <v>115.7989091230345</v>
+        <v>4.102801235664667</v>
       </c>
       <c r="R3">
-        <v>115.7989091230345</v>
+        <v>24.616807413988</v>
       </c>
       <c r="S3">
-        <v>0.004413008020093523</v>
+        <v>0.0001450038460637187</v>
       </c>
       <c r="T3">
-        <v>0.004413008020093523</v>
+        <v>0.0001243691736453229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H4">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I4">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J4">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.5520943179925</v>
+        <v>2.443152333333333</v>
       </c>
       <c r="N4">
-        <v>4.5520943179925</v>
+        <v>7.329457000000001</v>
       </c>
       <c r="O4">
-        <v>0.1396146597547926</v>
+        <v>0.07249740699947257</v>
       </c>
       <c r="P4">
-        <v>0.1396146597547926</v>
+        <v>0.0880603699157964</v>
       </c>
       <c r="Q4">
-        <v>298.6519053762128</v>
+        <v>160.3991147566703</v>
       </c>
       <c r="R4">
-        <v>298.6519053762128</v>
+        <v>962.3946885400221</v>
       </c>
       <c r="S4">
-        <v>0.01138139610832719</v>
+        <v>0.00566892891197178</v>
       </c>
       <c r="T4">
-        <v>0.01138139610832719</v>
+        <v>0.004862215888578542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H5">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I5">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J5">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.51144187657493</v>
+        <v>4.581488</v>
       </c>
       <c r="N5">
-        <v>8.51144187657493</v>
+        <v>13.744464</v>
       </c>
       <c r="O5">
-        <v>0.2610495254730924</v>
+        <v>0.1359497709854357</v>
       </c>
       <c r="P5">
-        <v>0.2610495254730924</v>
+        <v>0.1651340043518021</v>
       </c>
       <c r="Q5">
-        <v>558.4151285905274</v>
+        <v>300.786246294224</v>
       </c>
       <c r="R5">
-        <v>558.4151285905274</v>
+        <v>1804.717477765344</v>
       </c>
       <c r="S5">
-        <v>0.02128077422899799</v>
+        <v>0.01063058141266881</v>
       </c>
       <c r="T5">
-        <v>0.02128077422899799</v>
+        <v>0.009117803848333619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H6">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I6">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J6">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.36862586235319</v>
+        <v>8.745335666666668</v>
       </c>
       <c r="N6">
-        <v>1.36862586235319</v>
+        <v>26.236007</v>
       </c>
       <c r="O6">
-        <v>0.04197633457391053</v>
+        <v>0.2595066015831748</v>
       </c>
       <c r="P6">
-        <v>0.04197633457391053</v>
+        <v>0.3152146852807</v>
       </c>
       <c r="Q6">
-        <v>89.79223473541744</v>
+        <v>574.1533509985537</v>
       </c>
       <c r="R6">
-        <v>89.79223473541744</v>
+        <v>3444.920105991322</v>
       </c>
       <c r="S6">
-        <v>0.00342191351395637</v>
+        <v>0.02029209784803895</v>
       </c>
       <c r="T6">
-        <v>0.00342191351395637</v>
+        <v>0.01740444484335713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>260.306395333893</v>
+        <v>65.652523</v>
       </c>
       <c r="H7">
-        <v>260.306395333893</v>
+        <v>131.305046</v>
       </c>
       <c r="I7">
-        <v>0.3234411827275337</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J7">
-        <v>0.3234411827275337</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.4075162779492</v>
+        <v>1.4133865</v>
       </c>
       <c r="N7">
-        <v>16.4075162779492</v>
+        <v>2.826773</v>
       </c>
       <c r="O7">
-        <v>0.5032254699804471</v>
+        <v>0.04194042874038011</v>
       </c>
       <c r="P7">
-        <v>0.5032254699804471</v>
+        <v>0.0339624990020387</v>
       </c>
       <c r="Q7">
-        <v>4270.981418695129</v>
+        <v>92.79238969913951</v>
       </c>
       <c r="R7">
-        <v>4270.981418695129</v>
+        <v>371.169558796558</v>
       </c>
       <c r="S7">
-        <v>0.1627638411890948</v>
+        <v>0.003279528453597833</v>
       </c>
       <c r="T7">
-        <v>0.1627638411890948</v>
+        <v>0.001875224944222311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H8">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J8">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.76502324867029</v>
+        <v>16.454003</v>
       </c>
       <c r="N8">
-        <v>1.76502324867029</v>
+        <v>32.908006</v>
       </c>
       <c r="O8">
-        <v>0.05413401021775737</v>
+        <v>0.4882514020867614</v>
       </c>
       <c r="P8">
-        <v>0.05413401021775737</v>
+        <v>0.3953759714466225</v>
       </c>
       <c r="Q8">
-        <v>459.4468395418806</v>
+        <v>4557.38607653137</v>
       </c>
       <c r="R8">
-        <v>459.4468395418806</v>
+        <v>27344.31645918822</v>
       </c>
       <c r="S8">
-        <v>0.01750916829061584</v>
+        <v>0.1610700765491097</v>
       </c>
       <c r="T8">
-        <v>0.01750916829061584</v>
+        <v>0.1381491102697993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H9">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J9">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.5520943179925</v>
+        <v>0.06249266666666667</v>
       </c>
       <c r="N9">
-        <v>4.5520943179925</v>
+        <v>0.187478</v>
       </c>
       <c r="O9">
-        <v>0.1396146597547926</v>
+        <v>0.00185438960477524</v>
       </c>
       <c r="P9">
-        <v>0.1396146597547926</v>
+        <v>0.00225247000304029</v>
       </c>
       <c r="Q9">
-        <v>1184.939263136524</v>
+        <v>17.30905293696511</v>
       </c>
       <c r="R9">
-        <v>1184.939263136524</v>
+        <v>155.781476432686</v>
       </c>
       <c r="S9">
-        <v>0.04515713067719233</v>
+        <v>0.0006117477068503024</v>
       </c>
       <c r="T9">
-        <v>0.04515713067719233</v>
+        <v>0.0007870400563060989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H10">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J10">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.51144187657493</v>
+        <v>2.443152333333333</v>
       </c>
       <c r="N10">
-        <v>8.51144187657493</v>
+        <v>7.329457000000001</v>
       </c>
       <c r="O10">
-        <v>0.2610495254730924</v>
+        <v>0.07249740699947257</v>
       </c>
       <c r="P10">
-        <v>0.2610495254730924</v>
+        <v>0.0880603699157964</v>
       </c>
       <c r="Q10">
-        <v>2215.582753985166</v>
+        <v>676.6978483459899</v>
       </c>
       <c r="R10">
-        <v>2215.582753985166</v>
+        <v>6090.28063511391</v>
       </c>
       <c r="S10">
-        <v>0.08443416726947846</v>
+        <v>0.02391629157665378</v>
       </c>
       <c r="T10">
-        <v>0.08443416726947846</v>
+        <v>0.03076935027028841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H11">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J11">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.36862586235319</v>
+        <v>4.581488</v>
       </c>
       <c r="N11">
-        <v>1.36862586235319</v>
+        <v>13.744464</v>
       </c>
       <c r="O11">
-        <v>0.04197633457391053</v>
+        <v>0.1359497709854357</v>
       </c>
       <c r="P11">
-        <v>0.04197633457391053</v>
+        <v>0.1651340043518021</v>
       </c>
       <c r="Q11">
-        <v>356.2620647898997</v>
+        <v>1268.968385443686</v>
       </c>
       <c r="R11">
-        <v>356.2620647898997</v>
+        <v>11420.71546899317</v>
       </c>
       <c r="S11">
-        <v>0.01357687530115229</v>
+        <v>0.04484869869470837</v>
       </c>
       <c r="T11">
-        <v>0.01357687530115229</v>
+        <v>0.0576998032860237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>208.32228131281</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H12">
-        <v>208.32228131281</v>
+        <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.2588488268599219</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J12">
-        <v>0.2588488268599219</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.4075162779492</v>
+        <v>8.745335666666668</v>
       </c>
       <c r="N12">
-        <v>16.4075162779492</v>
+        <v>26.236007</v>
       </c>
       <c r="O12">
-        <v>0.5032254699804471</v>
+        <v>0.2595066015831748</v>
       </c>
       <c r="P12">
-        <v>0.5032254699804471</v>
+        <v>0.3152146852807</v>
       </c>
       <c r="Q12">
-        <v>3418.051221699442</v>
+        <v>2422.259859917363</v>
       </c>
       <c r="R12">
-        <v>3418.051221699442</v>
+        <v>21800.33873925626</v>
       </c>
       <c r="S12">
-        <v>0.1302593225504716</v>
+        <v>0.08560906943299204</v>
       </c>
       <c r="T12">
-        <v>0.1302593225504716</v>
+        <v>0.1101397946773872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>208.32228131281</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H13">
-        <v>208.32228131281</v>
+        <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.2588488268599219</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J13">
-        <v>0.2588488268599219</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.76502324867029</v>
+        <v>1.4133865</v>
       </c>
       <c r="N13">
-        <v>1.76502324867029</v>
+        <v>2.826773</v>
       </c>
       <c r="O13">
-        <v>0.05413401021775737</v>
+        <v>0.04194042874038011</v>
       </c>
       <c r="P13">
-        <v>0.05413401021775737</v>
+        <v>0.0339624990020387</v>
       </c>
       <c r="Q13">
-        <v>367.6936697331419</v>
+        <v>391.4760411711002</v>
       </c>
       <c r="R13">
-        <v>367.6936697331419</v>
+        <v>2348.856247026601</v>
       </c>
       <c r="S13">
-        <v>0.01401252503808952</v>
+        <v>0.01383579860466041</v>
       </c>
       <c r="T13">
-        <v>0.01401252503808952</v>
+        <v>0.01186690481594939</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H14">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I14">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J14">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.5520943179925</v>
+        <v>16.454003</v>
       </c>
       <c r="N14">
-        <v>4.5520943179925</v>
+        <v>32.908006</v>
       </c>
       <c r="O14">
-        <v>0.1396146597547926</v>
+        <v>0.4882514020867614</v>
       </c>
       <c r="P14">
-        <v>0.1396146597547926</v>
+        <v>0.3953759714466225</v>
       </c>
       <c r="Q14">
-        <v>948.3026730752775</v>
+        <v>3607.157613149585</v>
       </c>
       <c r="R14">
-        <v>948.3026730752775</v>
+        <v>21642.94567889751</v>
       </c>
       <c r="S14">
-        <v>0.03613909088997522</v>
+        <v>0.1274864896495473</v>
       </c>
       <c r="T14">
-        <v>0.03613909088997522</v>
+        <v>0.1093446125676551</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H15">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I15">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J15">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>8.51144187657493</v>
+        <v>0.06249266666666667</v>
       </c>
       <c r="N15">
-        <v>8.51144187657493</v>
+        <v>0.187478</v>
       </c>
       <c r="O15">
-        <v>0.2610495254730924</v>
+        <v>0.00185438960477524</v>
       </c>
       <c r="P15">
-        <v>0.2610495254730924</v>
+        <v>0.00225247000304029</v>
       </c>
       <c r="Q15">
-        <v>1773.122988989474</v>
+        <v>13.70006425382845</v>
       </c>
       <c r="R15">
-        <v>1773.122988989474</v>
+        <v>123.300578284456</v>
       </c>
       <c r="S15">
-        <v>0.06757236342104928</v>
+        <v>0.0004841965023449072</v>
       </c>
       <c r="T15">
-        <v>0.06757236342104928</v>
+        <v>0.0006229398789753119</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H16">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I16">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J16">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.36862586235319</v>
+        <v>2.443152333333333</v>
       </c>
       <c r="N16">
-        <v>1.36862586235319</v>
+        <v>7.329457000000001</v>
       </c>
       <c r="O16">
-        <v>0.04197633457391053</v>
+        <v>0.07249740699947257</v>
       </c>
       <c r="P16">
-        <v>0.04197633457391053</v>
+        <v>0.0880603699157964</v>
       </c>
       <c r="Q16">
-        <v>285.1152619091284</v>
+        <v>535.6043474203516</v>
       </c>
       <c r="R16">
-        <v>285.1152619091284</v>
+        <v>4820.439126783164</v>
       </c>
       <c r="S16">
-        <v>0.01086552496033632</v>
+        <v>0.01892967411369546</v>
       </c>
       <c r="T16">
-        <v>0.01086552496033632</v>
+        <v>0.02435384981989755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>135.566467160813</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H17">
-        <v>135.566467160813</v>
+        <v>657.680252</v>
       </c>
       <c r="I17">
-        <v>0.1684467967851636</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J17">
-        <v>0.1684467967851636</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4075162779492</v>
+        <v>4.581488</v>
       </c>
       <c r="N17">
-        <v>16.4075162779492</v>
+        <v>13.744464</v>
       </c>
       <c r="O17">
-        <v>0.5032254699804471</v>
+        <v>0.1359497709854357</v>
       </c>
       <c r="P17">
-        <v>0.5032254699804471</v>
+        <v>0.1651340043518021</v>
       </c>
       <c r="Q17">
-        <v>2224.309016685105</v>
+        <v>1004.384727458325</v>
       </c>
       <c r="R17">
-        <v>2224.309016685105</v>
+        <v>9039.462547124929</v>
       </c>
       <c r="S17">
-        <v>0.0847667184789148</v>
+        <v>0.03549761249536208</v>
       </c>
       <c r="T17">
-        <v>0.0847667184789148</v>
+        <v>0.04566922380620943</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>135.566467160813</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H18">
-        <v>135.566467160813</v>
+        <v>657.680252</v>
       </c>
       <c r="I18">
-        <v>0.1684467967851636</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J18">
-        <v>0.1684467967851636</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.76502324867029</v>
+        <v>8.745335666666668</v>
       </c>
       <c r="N18">
-        <v>1.76502324867029</v>
+        <v>26.236007</v>
       </c>
       <c r="O18">
-        <v>0.05413401021775737</v>
+        <v>0.2595066015831748</v>
       </c>
       <c r="P18">
-        <v>0.05413401021775737</v>
+        <v>0.3152146852807</v>
       </c>
       <c r="Q18">
-        <v>239.2779662789324</v>
+        <v>1917.211521692641</v>
       </c>
       <c r="R18">
-        <v>239.2779662789324</v>
+        <v>17254.90369523376</v>
       </c>
       <c r="S18">
-        <v>0.009118700618316544</v>
+        <v>0.06775932549363926</v>
       </c>
       <c r="T18">
-        <v>0.009118700618316544</v>
+        <v>0.08717532203978832</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>135.566467160813</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H19">
-        <v>135.566467160813</v>
+        <v>657.680252</v>
       </c>
       <c r="I19">
-        <v>0.1684467967851636</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J19">
-        <v>0.1684467967851636</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.5520943179925</v>
+        <v>1.4133865</v>
       </c>
       <c r="N19">
-        <v>4.5520943179925</v>
+        <v>2.826773</v>
       </c>
       <c r="O19">
-        <v>0.1396146597547926</v>
+        <v>0.04194042874038011</v>
       </c>
       <c r="P19">
-        <v>0.1396146597547926</v>
+        <v>0.0339624990020387</v>
       </c>
       <c r="Q19">
-        <v>617.1113448730538</v>
+        <v>309.8521298311327</v>
       </c>
       <c r="R19">
-        <v>617.1113448730538</v>
+        <v>1859.112778986796</v>
       </c>
       <c r="S19">
-        <v>0.0235176422199453</v>
+        <v>0.0109509937127798</v>
       </c>
       <c r="T19">
-        <v>0.0235176422199453</v>
+        <v>0.009392620096814982</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H20">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I20">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J20">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.51144187657493</v>
+        <v>16.454003</v>
       </c>
       <c r="N20">
-        <v>8.51144187657493</v>
+        <v>32.908006</v>
       </c>
       <c r="O20">
-        <v>0.2610495254730924</v>
+        <v>0.4882514020867614</v>
       </c>
       <c r="P20">
-        <v>0.2610495254730924</v>
+        <v>0.3953759714466225</v>
       </c>
       <c r="Q20">
-        <v>1153.866105651864</v>
+        <v>2241.268652509897</v>
       </c>
       <c r="R20">
-        <v>1153.866105651864</v>
+        <v>13447.61191505938</v>
       </c>
       <c r="S20">
-        <v>0.04397295636822937</v>
+        <v>0.0792123615082546</v>
       </c>
       <c r="T20">
-        <v>0.04397295636822937</v>
+        <v>0.06794010097461246</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H21">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I21">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J21">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.36862586235319</v>
+        <v>0.06249266666666667</v>
       </c>
       <c r="N21">
-        <v>1.36862586235319</v>
+        <v>0.187478</v>
       </c>
       <c r="O21">
-        <v>0.04197633457391053</v>
+        <v>0.00185438960477524</v>
       </c>
       <c r="P21">
-        <v>0.04197633457391053</v>
+        <v>0.00225247000304029</v>
       </c>
       <c r="Q21">
-        <v>185.5397730241431</v>
+        <v>8.512387825123778</v>
       </c>
       <c r="R21">
-        <v>185.5397730241431</v>
+        <v>76.611490426114</v>
       </c>
       <c r="S21">
-        <v>0.007070779099757542</v>
+        <v>0.0003008502978645897</v>
       </c>
       <c r="T21">
-        <v>0.007070779099757542</v>
+        <v>0.0003870570052320519</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>61.7092671774153</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H22">
-        <v>61.7092671774153</v>
+        <v>408.642563</v>
       </c>
       <c r="I22">
-        <v>0.07667625044521445</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J22">
-        <v>0.07667625044521445</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.4075162779492</v>
+        <v>2.443152333333333</v>
       </c>
       <c r="N22">
-        <v>16.4075162779492</v>
+        <v>7.329457000000001</v>
       </c>
       <c r="O22">
-        <v>0.5032254699804471</v>
+        <v>0.07249740699947257</v>
       </c>
       <c r="P22">
-        <v>0.5032254699804471</v>
+        <v>0.0880603699157964</v>
       </c>
       <c r="Q22">
-        <v>1012.495805713758</v>
+        <v>332.7920104309213</v>
       </c>
       <c r="R22">
-        <v>1012.495805713758</v>
+        <v>2995.128093878291</v>
       </c>
       <c r="S22">
-        <v>0.03858544216663151</v>
+        <v>0.01176174976069566</v>
       </c>
       <c r="T22">
-        <v>0.03858544216663151</v>
+        <v>0.01513200309581444</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>61.7092671774153</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H23">
-        <v>61.7092671774153</v>
+        <v>408.642563</v>
       </c>
       <c r="I23">
-        <v>0.07667625044521445</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J23">
-        <v>0.07667625044521445</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.76502324867029</v>
+        <v>4.581488</v>
       </c>
       <c r="N23">
-        <v>1.76502324867029</v>
+        <v>13.744464</v>
       </c>
       <c r="O23">
-        <v>0.05413401021775737</v>
+        <v>0.1359497709854357</v>
       </c>
       <c r="P23">
-        <v>0.05413401021775737</v>
+        <v>0.1651340043518021</v>
       </c>
       <c r="Q23">
-        <v>108.9182912265444</v>
+        <v>624.0636662245814</v>
       </c>
       <c r="R23">
-        <v>108.9182912265444</v>
+        <v>5616.572996021232</v>
       </c>
       <c r="S23">
-        <v>0.004150792925060562</v>
+        <v>0.02205606038249357</v>
       </c>
       <c r="T23">
-        <v>0.004150792925060562</v>
+        <v>0.02837608185685654</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>61.7092671774153</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H24">
-        <v>61.7092671774153</v>
+        <v>408.642563</v>
       </c>
       <c r="I24">
-        <v>0.07667625044521445</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J24">
-        <v>0.07667625044521445</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.5520943179925</v>
+        <v>8.745335666666668</v>
       </c>
       <c r="N24">
-        <v>4.5520943179925</v>
+        <v>26.236007</v>
       </c>
       <c r="O24">
-        <v>0.1396146597547926</v>
+        <v>0.2595066015831748</v>
       </c>
       <c r="P24">
-        <v>0.1396146597547926</v>
+        <v>0.3152146852807</v>
       </c>
       <c r="Q24">
-        <v>280.9064044857932</v>
+        <v>1191.238793707327</v>
       </c>
       <c r="R24">
-        <v>280.9064044857932</v>
+        <v>10721.14914336594</v>
       </c>
       <c r="S24">
-        <v>0.01070512861718188</v>
+        <v>0.04210152935665763</v>
       </c>
       <c r="T24">
-        <v>0.01070512861718188</v>
+        <v>0.05416545033906459</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>61.7092671774153</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H25">
-        <v>61.7092671774153</v>
+        <v>408.642563</v>
       </c>
       <c r="I25">
-        <v>0.07667625044521445</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J25">
-        <v>0.07667625044521445</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.51144187657493</v>
+        <v>1.4133865</v>
       </c>
       <c r="N25">
-        <v>8.51144187657493</v>
+        <v>2.826773</v>
       </c>
       <c r="O25">
-        <v>0.2610495254730924</v>
+        <v>0.04194042874038011</v>
       </c>
       <c r="P25">
-        <v>0.2610495254730924</v>
+        <v>0.0339624990020387</v>
       </c>
       <c r="Q25">
-        <v>525.2348408266034</v>
+        <v>192.5232939565332</v>
       </c>
       <c r="R25">
-        <v>525.2348408266034</v>
+        <v>1155.139763739199</v>
       </c>
       <c r="S25">
-        <v>0.02001629879377922</v>
+        <v>0.006804282361495054</v>
       </c>
       <c r="T25">
-        <v>0.02001629879377922</v>
+        <v>0.005836003647632379</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H26">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I26">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J26">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.36862586235319</v>
+        <v>16.454003</v>
       </c>
       <c r="N26">
-        <v>1.36862586235319</v>
+        <v>32.908006</v>
       </c>
       <c r="O26">
-        <v>0.04197633457391053</v>
+        <v>0.4882514020867614</v>
       </c>
       <c r="P26">
-        <v>0.04197633457391053</v>
+        <v>0.3953759714466225</v>
       </c>
       <c r="Q26">
-        <v>84.45689900587341</v>
+        <v>1093.642639493983</v>
       </c>
       <c r="R26">
-        <v>84.45689900587341</v>
+        <v>6561.855836963898</v>
       </c>
       <c r="S26">
-        <v>0.003218587942561278</v>
+        <v>0.03865222316094327</v>
       </c>
       <c r="T26">
-        <v>0.003218587942561278</v>
+        <v>0.03315184517222208</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>73.29088599551829</v>
+        <v>66.466661</v>
       </c>
       <c r="H27">
-        <v>73.29088599551829</v>
+        <v>199.399983</v>
       </c>
       <c r="I27">
-        <v>0.09106687839587146</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J27">
-        <v>0.09106687839587146</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>16.4075162779492</v>
+        <v>0.06249266666666667</v>
       </c>
       <c r="N27">
-        <v>16.4075162779492</v>
+        <v>0.187478</v>
       </c>
       <c r="O27">
-        <v>0.5032254699804471</v>
+        <v>0.00185438960477524</v>
       </c>
       <c r="P27">
-        <v>0.5032254699804471</v>
+        <v>0.00225247000304029</v>
       </c>
       <c r="Q27">
-        <v>1202.521404996785</v>
+        <v>4.153678890319334</v>
       </c>
       <c r="R27">
-        <v>1202.521404996785</v>
+        <v>37.383110012874</v>
       </c>
       <c r="S27">
-        <v>0.04582717268041465</v>
+        <v>0.0001468019969318372</v>
       </c>
       <c r="T27">
-        <v>0.04582717268041465</v>
+        <v>0.0001888671598393975</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>73.29088599551829</v>
+        <v>66.466661</v>
       </c>
       <c r="H28">
-        <v>73.29088599551829</v>
+        <v>199.399983</v>
       </c>
       <c r="I28">
-        <v>0.09106687839587146</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J28">
-        <v>0.09106687839587146</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.76502324867029</v>
+        <v>2.443152333333333</v>
       </c>
       <c r="N28">
-        <v>1.76502324867029</v>
+        <v>7.329457000000001</v>
       </c>
       <c r="O28">
-        <v>0.05413401021775737</v>
+        <v>0.07249740699947257</v>
       </c>
       <c r="P28">
-        <v>0.05413401021775737</v>
+        <v>0.0880603699157964</v>
       </c>
       <c r="Q28">
-        <v>129.3601176977336</v>
+        <v>162.3881779110257</v>
       </c>
       <c r="R28">
-        <v>129.3601176977336</v>
+        <v>1461.493601199231</v>
       </c>
       <c r="S28">
-        <v>0.004929815325581374</v>
+        <v>0.005739227664184774</v>
       </c>
       <c r="T28">
-        <v>0.004929815325581374</v>
+        <v>0.007383766237931869</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>73.29088599551829</v>
+        <v>66.466661</v>
       </c>
       <c r="H29">
-        <v>73.29088599551829</v>
+        <v>199.399983</v>
       </c>
       <c r="I29">
-        <v>0.09106687839587146</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J29">
-        <v>0.09106687839587146</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.5520943179925</v>
+        <v>4.581488</v>
       </c>
       <c r="N29">
-        <v>4.5520943179925</v>
+        <v>13.744464</v>
       </c>
       <c r="O29">
-        <v>0.1396146597547926</v>
+        <v>0.1359497709854357</v>
       </c>
       <c r="P29">
-        <v>0.1396146597547926</v>
+        <v>0.1651340043518021</v>
       </c>
       <c r="Q29">
-        <v>333.627025700835</v>
+        <v>304.516209771568</v>
       </c>
       <c r="R29">
-        <v>333.627025700835</v>
+        <v>2740.645887944112</v>
       </c>
       <c r="S29">
-        <v>0.01271427124217067</v>
+        <v>0.01076240818633518</v>
       </c>
       <c r="T29">
-        <v>0.01271427124217067</v>
+        <v>0.01384630665568677</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>73.29088599551829</v>
+        <v>66.466661</v>
       </c>
       <c r="H30">
-        <v>73.29088599551829</v>
+        <v>199.399983</v>
       </c>
       <c r="I30">
-        <v>0.09106687839587146</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J30">
-        <v>0.09106687839587146</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.51144187657493</v>
+        <v>8.745335666666668</v>
       </c>
       <c r="N30">
-        <v>8.51144187657493</v>
+        <v>26.236007</v>
       </c>
       <c r="O30">
-        <v>0.2610495254730924</v>
+        <v>0.2595066015831748</v>
       </c>
       <c r="P30">
-        <v>0.2610495254730924</v>
+        <v>0.3152146852807</v>
       </c>
       <c r="Q30">
-        <v>623.8111162335334</v>
+        <v>581.2732610875424</v>
       </c>
       <c r="R30">
-        <v>623.8111162335334</v>
+        <v>5231.459349787881</v>
       </c>
       <c r="S30">
-        <v>0.02377296539155806</v>
+        <v>0.02054373430011874</v>
       </c>
       <c r="T30">
-        <v>0.02377296539155806</v>
+        <v>0.02643040851522073</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>73.29088599551829</v>
+        <v>66.466661</v>
       </c>
       <c r="H31">
-        <v>73.29088599551829</v>
+        <v>199.399983</v>
       </c>
       <c r="I31">
-        <v>0.09106687839587146</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J31">
-        <v>0.09106687839587146</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.36862586235319</v>
+        <v>1.4133865</v>
       </c>
       <c r="N31">
-        <v>1.36862586235319</v>
+        <v>2.826773</v>
       </c>
       <c r="O31">
-        <v>0.04197633457391053</v>
+        <v>0.04194042874038011</v>
       </c>
       <c r="P31">
-        <v>0.04197633457391053</v>
+        <v>0.0339624990020387</v>
       </c>
       <c r="Q31">
-        <v>100.3078020482456</v>
+        <v>93.94308135747652</v>
       </c>
       <c r="R31">
-        <v>100.3078020482456</v>
+        <v>563.658488144859</v>
       </c>
       <c r="S31">
-        <v>0.003822653756146725</v>
+        <v>0.003320196939958292</v>
       </c>
       <c r="T31">
-        <v>0.003822653756146725</v>
+        <v>0.002847718601759637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>75.063408</v>
+      </c>
+      <c r="H32">
+        <v>150.126816</v>
+      </c>
+      <c r="I32">
+        <v>0.08940367994566026</v>
+      </c>
+      <c r="J32">
+        <v>0.06312924427414179</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>16.454003</v>
+      </c>
+      <c r="N32">
+        <v>32.908006</v>
+      </c>
+      <c r="O32">
+        <v>0.4882514020867614</v>
+      </c>
+      <c r="P32">
+        <v>0.3953759714466225</v>
+      </c>
+      <c r="Q32">
+        <v>1235.093540422224</v>
+      </c>
+      <c r="R32">
+        <v>4940.374161688896</v>
+      </c>
+      <c r="S32">
+        <v>0.0436514720851847</v>
+      </c>
+      <c r="T32">
+        <v>0.02495978628157994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>75.063408</v>
+      </c>
+      <c r="H33">
+        <v>150.126816</v>
+      </c>
+      <c r="I33">
+        <v>0.08940367994566026</v>
+      </c>
+      <c r="J33">
+        <v>0.06312924427414179</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.06249266666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.187478</v>
+      </c>
+      <c r="O33">
+        <v>0.00185438960477524</v>
+      </c>
+      <c r="P33">
+        <v>0.00225247000304029</v>
+      </c>
+      <c r="Q33">
+        <v>4.690912535008</v>
+      </c>
+      <c r="R33">
+        <v>28.145475210048</v>
+      </c>
+      <c r="S33">
+        <v>0.000165789254719885</v>
+      </c>
+      <c r="T33">
+        <v>0.0001421967290421074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>75.063408</v>
+      </c>
+      <c r="H34">
+        <v>150.126816</v>
+      </c>
+      <c r="I34">
+        <v>0.08940367994566026</v>
+      </c>
+      <c r="J34">
+        <v>0.06312924427414179</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.443152333333333</v>
+      </c>
+      <c r="N34">
+        <v>7.329457000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.07249740699947257</v>
+      </c>
+      <c r="P34">
+        <v>0.0880603699157964</v>
+      </c>
+      <c r="Q34">
+        <v>183.391340403152</v>
+      </c>
+      <c r="R34">
+        <v>1100.348042418912</v>
+      </c>
+      <c r="S34">
+        <v>0.006481534972271116</v>
+      </c>
+      <c r="T34">
+        <v>0.005559184603285598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>75.063408</v>
+      </c>
+      <c r="H35">
+        <v>150.126816</v>
+      </c>
+      <c r="I35">
+        <v>0.08940367994566026</v>
+      </c>
+      <c r="J35">
+        <v>0.06312924427414179</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.581488</v>
+      </c>
+      <c r="N35">
+        <v>13.744464</v>
+      </c>
+      <c r="O35">
+        <v>0.1359497709854357</v>
+      </c>
+      <c r="P35">
+        <v>0.1651340043518021</v>
+      </c>
+      <c r="Q35">
+        <v>343.902102991104</v>
+      </c>
+      <c r="R35">
+        <v>2063.412617946624</v>
+      </c>
+      <c r="S35">
+        <v>0.01215440981386771</v>
+      </c>
+      <c r="T35">
+        <v>0.01042478489869211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>75.063408</v>
+      </c>
+      <c r="H36">
+        <v>150.126816</v>
+      </c>
+      <c r="I36">
+        <v>0.08940367994566026</v>
+      </c>
+      <c r="J36">
+        <v>0.06312924427414179</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>8.745335666666668</v>
+      </c>
+      <c r="N36">
+        <v>26.236007</v>
+      </c>
+      <c r="O36">
+        <v>0.2595066015831748</v>
+      </c>
+      <c r="P36">
+        <v>0.3152146852807</v>
+      </c>
+      <c r="Q36">
+        <v>656.4546992439521</v>
+      </c>
+      <c r="R36">
+        <v>3938.728195463712</v>
+      </c>
+      <c r="S36">
+        <v>0.02320084515172813</v>
+      </c>
+      <c r="T36">
+        <v>0.01989926486588204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>75.063408</v>
+      </c>
+      <c r="H37">
+        <v>150.126816</v>
+      </c>
+      <c r="I37">
+        <v>0.08940367994566026</v>
+      </c>
+      <c r="J37">
+        <v>0.06312924427414179</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.4133865</v>
+      </c>
+      <c r="N37">
+        <v>2.826773</v>
+      </c>
+      <c r="O37">
+        <v>0.04194042874038011</v>
+      </c>
+      <c r="P37">
+        <v>0.0339624990020387</v>
+      </c>
+      <c r="Q37">
+        <v>106.093607511192</v>
+      </c>
+      <c r="R37">
+        <v>424.374430044768</v>
+      </c>
+      <c r="S37">
+        <v>0.003749628667888714</v>
+      </c>
+      <c r="T37">
+        <v>0.002144026895659998</v>
       </c>
     </row>
   </sheetData>
